--- a/Part1-volcabulary.xlsx
+++ b/Part1-volcabulary.xlsx
@@ -30,6 +30,7 @@
     <sheet name="Traffic" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2690,14 +2691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2902,7 +2896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2921,13 +2915,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2999,26 +2993,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3027,56 +3021,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3105,8 +3060,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3715,7 +3709,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="61" t="s">
         <v>451</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3726,7 +3720,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="1" t="s">
         <v>453</v>
       </c>
@@ -3860,13 +3854,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3952,13 +3946,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4113,13 +4107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4316,13 +4310,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -4443,13 +4437,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4535,13 +4529,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4638,7 +4632,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="61" t="s">
         <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4646,7 +4640,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="61"/>
       <c r="C12" s="1" t="s">
         <v>399</v>
       </c>
@@ -4701,13 +4695,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -5455,7 +5449,7 @@
       <c r="A24" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="49" t="s">
         <v>670</v>
       </c>
     </row>
@@ -5483,8 +5477,8 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,15 +5492,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-    </row>
-    <row r="2" spans="1:5" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -5524,331 +5518,331 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="50" t="s">
         <v>671</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="50" t="s">
         <v>677</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="50" t="s">
         <v>678</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="50" t="s">
         <v>680</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="50" t="s">
         <v>672</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="50" t="s">
         <v>674</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="E11" s="62"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="s">
         <v>689</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50" t="s">
         <v>688</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="50" t="s">
         <v>681</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="50" t="s">
         <v>682</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="E19" s="62"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="50" t="s">
         <v>694</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50" t="s">
         <v>695</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="50" t="s">
         <v>696</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="50" t="s">
         <v>690</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50" t="s">
         <v>692</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -6084,11 +6078,11 @@
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
     </row>
     <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -6156,7 +6150,7 @@
       <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="62" t="s">
         <v>184</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -6171,7 +6165,7 @@
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="9" t="s">
         <v>189</v>
       </c>
@@ -6198,7 +6192,7 @@
       <c r="A74" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C74" s="16"/>
@@ -6209,7 +6203,7 @@
       <c r="A75" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="52"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="19"/>
       <c r="D75" s="20"/>
       <c r="E75" s="9"/>
@@ -6218,7 +6212,7 @@
       <c r="A76" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B76" s="52"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="19"/>
       <c r="D76" s="20"/>
       <c r="E76" s="9"/>
@@ -6227,7 +6221,7 @@
       <c r="A77" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B77" s="52"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="19"/>
       <c r="D77" s="20"/>
       <c r="E77" s="9"/>
@@ -6236,7 +6230,7 @@
       <c r="A78" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="52"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="19"/>
       <c r="D78" s="20"/>
       <c r="E78" s="9"/>
@@ -6245,7 +6239,7 @@
       <c r="A79" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="22"/>
       <c r="D79" s="23"/>
       <c r="E79" s="9"/>
@@ -6332,7 +6326,7 @@
       <c r="A86" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="66" t="s">
         <v>233</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -6345,7 +6339,7 @@
       <c r="A87" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="9" t="s">
         <v>239</v>
       </c>
@@ -6591,38 +6585,38 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="66" t="s">
+      <c r="B109" s="52"/>
+      <c r="C109" s="53" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="67" t="s">
+      <c r="A110" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="B110" s="68"/>
-      <c r="C110" s="69" t="s">
+      <c r="B110" s="55"/>
+      <c r="C110" s="56" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="67" t="s">
+      <c r="A111" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="B111" s="68"/>
-      <c r="C111" s="69" t="s">
+      <c r="B111" s="55"/>
+      <c r="C111" s="56" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="57" t="s">
         <v>637</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="72" t="s">
+      <c r="B112" s="58"/>
+      <c r="C112" s="59" t="s">
         <v>638</v>
       </c>
     </row>
@@ -6698,13 +6692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -6770,7 +6764,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="62" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -6784,7 +6778,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="9" t="s">
         <v>189</v>
       </c>
@@ -6935,11 +6929,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
@@ -6949,11 +6943,11 @@
       <c r="E28" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
@@ -6963,11 +6957,11 @@
       <c r="E50" s="12"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
@@ -6977,11 +6971,11 @@
       <c r="E66" s="12"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
@@ -6991,11 +6985,11 @@
       <c r="E87" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
@@ -7005,11 +6999,11 @@
       <c r="E105" s="12"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
+      <c r="A119" s="69"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
@@ -7047,13 +7041,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -7198,13 +7192,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -7227,7 +7221,7 @@
       <c r="A3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="71" t="s">
         <v>205</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7238,7 +7232,7 @@
       <c r="A4" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -7452,13 +7446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">

--- a/Part1-volcabulary.xlsx
+++ b/Part1-volcabulary.xlsx
@@ -9,28 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="10530" tabRatio="748" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="10530" tabRatio="748" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sentence" sheetId="4" r:id="rId1"/>
     <sheet name="Thought" sheetId="7" r:id="rId2"/>
     <sheet name="of" sheetId="5" r:id="rId3"/>
     <sheet name="=&gt; 单词" sheetId="11" r:id="rId4"/>
-    <sheet name="Common" sheetId="10" r:id="rId5"/>
-    <sheet name="Personal Information" sheetId="1" r:id="rId6"/>
-    <sheet name="Fashion" sheetId="13" r:id="rId7"/>
-    <sheet name="Food" sheetId="14" r:id="rId8"/>
-    <sheet name="Media&amp;Film" sheetId="16" r:id="rId9"/>
-    <sheet name="Sport" sheetId="15" r:id="rId10"/>
-    <sheet name="School_student" sheetId="6" r:id="rId11"/>
-    <sheet name="Environment" sheetId="9" r:id="rId12"/>
-    <sheet name="Creative" sheetId="2" r:id="rId13"/>
-    <sheet name="Experience_Travelr" sheetId="12" r:id="rId14"/>
-    <sheet name="Objects" sheetId="3" r:id="rId15"/>
-    <sheet name="Traffic" sheetId="8" r:id="rId16"/>
+    <sheet name="807词汇差缺补漏" sheetId="18" r:id="rId5"/>
+    <sheet name="Common" sheetId="10" r:id="rId6"/>
+    <sheet name="Personal Information" sheetId="1" r:id="rId7"/>
+    <sheet name="Fashion" sheetId="13" r:id="rId8"/>
+    <sheet name="Food" sheetId="14" r:id="rId9"/>
+    <sheet name="Media&amp;Film" sheetId="16" r:id="rId10"/>
+    <sheet name="Sport" sheetId="15" r:id="rId11"/>
+    <sheet name="School_student" sheetId="6" r:id="rId12"/>
+    <sheet name="Environment" sheetId="9" r:id="rId13"/>
+    <sheet name="Creative" sheetId="2" r:id="rId14"/>
+    <sheet name="Experience_Travelr" sheetId="12" r:id="rId15"/>
+    <sheet name="Objects" sheetId="3" r:id="rId16"/>
+    <sheet name="Traffic" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="717">
   <si>
     <t>creative</t>
   </si>
@@ -2685,6 +2685,63 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>发音</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>bibliography</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˌbɪbliˈɑːɡrəfi/ </t>
+  </si>
+  <si>
+    <t>参考书目</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ɪkˈstensɪv/</t>
+  </si>
+  <si>
+    <t>广泛的</t>
+  </si>
+  <si>
+    <t>错误点</t>
+  </si>
+  <si>
+    <t>一看到bibli就想不起来什么含义</t>
+  </si>
+  <si>
+    <t>总是和扩张extent混淆</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /rɪˈvɪʒ(ə)n/ </t>
+  </si>
+  <si>
+    <t>n. 修改</t>
+  </si>
+  <si>
+    <t>总以为是回看</t>
+  </si>
+  <si>
+    <t>intensive</t>
+  </si>
+  <si>
+    <t>adj. 加强的，集中的，深入细致的</t>
+  </si>
+  <si>
+    <t>想不起含义</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ɪnˈtensɪv/</t>
   </si>
 </sst>
 </file>
@@ -3842,6 +3899,58 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +4037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -4089,7 +4198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4292,7 +4401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4421,7 +4530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4514,7 +4623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -4678,7 +4787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -4781,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,11 +5583,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6673,12 +6873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,7 +7227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -7175,7 +7375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -7430,56 +7630,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>